--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/095_LineChartMultipleSeriesWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/095_LineChartMultipleSeriesWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Comparison" sheetId="1" r:id="Rff5d02bc5be64f85"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Comparison" sheetId="1" r:id="R6868e1acf0a24840"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R27184d0629f04eee"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb9d47ccff03e47a6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R67f2595cc037484b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2c93627e18204dbf"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/095_LineChartMultipleSeriesWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/095_LineChartMultipleSeriesWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Comparison" sheetId="1" r:id="R6868e1acf0a24840"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Comparison" sheetId="1" r:id="R156f74fd1fa74251"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb9d47ccff03e47a6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdc39173e652143fd"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2c93627e18204dbf"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3dc539c4de2c422c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/095_LineChartMultipleSeriesWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/095_LineChartMultipleSeriesWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Comparison" sheetId="1" r:id="R156f74fd1fa74251"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Comparison" sheetId="1" r:id="Rd06f77460f0b4b92"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdc39173e652143fd"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R249b190dfc114b2c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3dc539c4de2c422c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra9218300ceed4ea7"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/095_LineChartMultipleSeriesWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/095_LineChartMultipleSeriesWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Comparison" sheetId="1" r:id="Rd06f77460f0b4b92"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Comparison" sheetId="1" r:id="R2458e44b61de4ab1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R249b190dfc114b2c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf07ce6d782a342d0"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra9218300ceed4ea7"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R513f8d63890848a1"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/095_LineChartMultipleSeriesWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/095_LineChartMultipleSeriesWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Comparison" sheetId="1" r:id="R2458e44b61de4ab1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Comparison" sheetId="1" r:id="R71ddba34222346e8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf07ce6d782a342d0"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc258d690b5774f66"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R513f8d63890848a1"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re0104333c7354d63"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/095_LineChartMultipleSeriesWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/095_LineChartMultipleSeriesWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Comparison" sheetId="1" r:id="R71ddba34222346e8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Comparison" sheetId="1" r:id="R21d5ccb3755640bf"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc258d690b5774f66"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6d5f714e0f3c4f4f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re0104333c7354d63"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdc740c4a00724737"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/095_LineChartMultipleSeriesWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/095_LineChartMultipleSeriesWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Comparison" sheetId="1" r:id="R21d5ccb3755640bf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Comparison" sheetId="1" r:id="Rbdd4127ae74c4883"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6d5f714e0f3c4f4f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R14a410bdd452452e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdc740c4a00724737"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re892b8bda92b4a26"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/095_LineChartMultipleSeriesWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/095_LineChartMultipleSeriesWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Comparison" sheetId="1" r:id="Rbdd4127ae74c4883"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Comparison" sheetId="1" r:id="Redb23f6d741548b8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R14a410bdd452452e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd5c6f764c1934e6f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re892b8bda92b4a26"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R51934cfdecc0424e"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/095_LineChartMultipleSeriesWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/095_LineChartMultipleSeriesWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Comparison" sheetId="1" r:id="Redb23f6d741548b8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Comparison" sheetId="1" r:id="R97e59bfbcf1346f0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd5c6f764c1934e6f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R75aa2c4234eb4b51"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R51934cfdecc0424e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd51b3e915302401d"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/095_LineChartMultipleSeriesWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/095_LineChartMultipleSeriesWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Comparison" sheetId="1" r:id="R97e59bfbcf1346f0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Comparison" sheetId="1" r:id="R08f6e6fb5e1a474e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R75aa2c4234eb4b51"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R782e899d3b594d3c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd51b3e915302401d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1a2ceec3f96b4f91"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/095_LineChartMultipleSeriesWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/095_LineChartMultipleSeriesWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Comparison" sheetId="1" r:id="R08f6e6fb5e1a474e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Comparison" sheetId="1" r:id="Ra60809b220ef4710"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R782e899d3b594d3c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R953d6ab0d7da46d5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1a2ceec3f96b4f91"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9290e9f8761d4ffd"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/095_LineChartMultipleSeriesWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/095_LineChartMultipleSeriesWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Comparison" sheetId="1" r:id="Ra60809b220ef4710"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Comparison" sheetId="1" r:id="Rfdb628d44a7c40af"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R953d6ab0d7da46d5"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc5ab0b09dc964cc9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9290e9f8761d4ffd"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2dec5e99eb384461"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/095_LineChartMultipleSeriesWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/095_LineChartMultipleSeriesWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Comparison" sheetId="1" r:id="Rfdb628d44a7c40af"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Comparison" sheetId="1" r:id="R859e87470c2848c2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc5ab0b09dc964cc9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd6aa9a453f1648b9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2dec5e99eb384461"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2a8245e1ea964d16"/>
 </x:worksheet>
 </file>